--- a/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD257FA-2D6F-407D-96D2-6FBBDB88DB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>johndoe@gmail.co</t>
+  </si>
+  <si>
+    <t>John1234</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +71,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +358,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{FCEBD0BB-4F71-487F-96D3-FDC194502EC5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD257FA-2D6F-407D-96D2-6FBBDB88DB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C830EFF-A9D7-4CEA-A506-0C4527DCAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>johndoe@gmail.co</t>
   </si>
   <si>
-    <t>John1234</t>
+    <t>johnd@gmail.com</t>
+  </si>
+  <si>
+    <t>johndoe@gmail.com</t>
+  </si>
+  <si>
+    <t>John246</t>
+  </si>
+  <si>
+    <t>John@1234</t>
   </si>
 </sst>
 </file>
@@ -359,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,12 +385,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{FCEBD0BB-4F71-487F-96D3-FDC194502EC5}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C79E49FA-DC6A-4792-96C1-2A1A8250A87D}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{76963002-F4DE-4732-B955-AC74636EFF3B}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{8DA3F16A-2A87-4853-A599-55E60BD34039}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{0EA1DE89-503A-448F-9E17-BF24EDBCFDE3}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C830EFF-A9D7-4CEA-A506-0C4527DCAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B63393-8026-4384-991A-748C1525E2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>johndoe@gmail.co</t>
   </si>
@@ -40,6 +40,51 @@
   </si>
   <si>
     <t>John@1234</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>H Qualification</t>
+  </si>
+  <si>
+    <t>Skill Set</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Johny Doe</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>computer engineer</t>
   </si>
 </sst>
 </file>
@@ -368,58 +413,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1234567890</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{FCEBD0BB-4F71-487F-96D3-FDC194502EC5}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{C79E49FA-DC6A-4792-96C1-2A1A8250A87D}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{76963002-F4DE-4732-B955-AC74636EFF3B}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{8DA3F16A-2A87-4853-A599-55E60BD34039}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{0EA1DE89-503A-448F-9E17-BF24EDBCFDE3}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{FCEBD0BB-4F71-487F-96D3-FDC194502EC5}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{C79E49FA-DC6A-4792-96C1-2A1A8250A87D}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{76963002-F4DE-4732-B955-AC74636EFF3B}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{8DA3F16A-2A87-4853-A599-55E60BD34039}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{0EA1DE89-503A-448F-9E17-BF24EDBCFDE3}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{5763257E-1663-4373-96A6-273101926616}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B63393-8026-4384-991A-748C1525E2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0981EED-C238-4AD1-BDFE-53FBA0666AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>johndoe@gmail.co</t>
-  </si>
-  <si>
-    <t>johnd@gmail.com</t>
-  </si>
-  <si>
-    <t>johndoe@gmail.com</t>
-  </si>
-  <si>
-    <t>John246</t>
-  </si>
-  <si>
-    <t>John@1234</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
@@ -69,22 +54,34 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>Johny Doe</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>computer engineer</t>
+    <t>sansastark@gmail.com</t>
+  </si>
+  <si>
+    <t>Sansa@1234</t>
+  </si>
+  <si>
+    <t>sansa@gmail.com</t>
+  </si>
+  <si>
+    <t>Sansa1234</t>
+  </si>
+  <si>
+    <t>Sansa Stark</t>
+  </si>
+  <si>
+    <t>Winterfell</t>
+  </si>
+  <si>
+    <t>Mtech</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,105 +430,105 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9999552277</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1234567890</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{FCEBD0BB-4F71-487F-96D3-FDC194502EC5}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{C79E49FA-DC6A-4792-96C1-2A1A8250A87D}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{76963002-F4DE-4732-B955-AC74636EFF3B}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{8DA3F16A-2A87-4853-A599-55E60BD34039}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{0EA1DE89-503A-448F-9E17-BF24EDBCFDE3}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{5763257E-1663-4373-96A6-273101926616}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{C79E49FA-DC6A-4792-96C1-2A1A8250A87D}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{76963002-F4DE-4732-B955-AC74636EFF3B}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{8DA3F16A-2A87-4853-A599-55E60BD34039}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{4C36D91E-B4D3-419B-AEAA-C684B9CC548B}"/>
+    <hyperlink ref="A3" r:id="rId6" xr:uid="{5443BDEA-DE3B-4ECB-9F17-E9F107666A0B}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{1233B0C9-2741-4782-9686-F395C0EDCF8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0981EED-C238-4AD1-BDFE-53FBA0666AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC823FE-E2F6-4749-8423-709E0D2F2A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>sansastark@gmail.com</t>
-  </si>
-  <si>
     <t>Sansa@1234</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Tester</t>
+  </si>
+  <si>
+    <t>1sansastark@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,34 +438,34 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -496,28 +496,28 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>9999552277</v>
       </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/TrainerExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC823FE-E2F6-4749-8423-709E0D2F2A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A40D02-A55A-4F9E-8B5B-35A8E17EB27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>1sansastark@gmail.com</t>
+    <t>sansa.stark@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,11 +524,11 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{C79E49FA-DC6A-4792-96C1-2A1A8250A87D}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{76963002-F4DE-4732-B955-AC74636EFF3B}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{8DA3F16A-2A87-4853-A599-55E60BD34039}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{4C36D91E-B4D3-419B-AEAA-C684B9CC548B}"/>
-    <hyperlink ref="A3" r:id="rId6" xr:uid="{5443BDEA-DE3B-4ECB-9F17-E9F107666A0B}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{1233B0C9-2741-4782-9686-F395C0EDCF8C}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{F0614897-10A4-4628-BC65-A596D9045DCC}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{4C36D91E-B4D3-419B-AEAA-C684B9CC548B}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{5443BDEA-DE3B-4ECB-9F17-E9F107666A0B}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{7F8019E7-A283-4C85-B5ED-E19EEAB7E13A}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{2DF443D6-0546-434D-B91B-82836594525E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
